--- a/Running projects/Dolmen City Family Area/VO/002- variation order for test and drain valve.xlsx
+++ b/Running projects/Dolmen City Family Area/VO/002- variation order for test and drain valve.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE035450-9E31-49D7-9A7E-D6EDE2DE65E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503CC5B3-A3C2-43B2-9E5F-141EF9E6C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$94</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -93,8 +93,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -264,15 +264,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,25 +284,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -311,19 +311,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -333,7 +333,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -343,13 +343,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,16 +508,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>538307</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>174626</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>89477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>841375</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -540,8 +540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8412307" y="216477"/>
-          <a:ext cx="9605818" cy="7308273"/>
+          <a:off x="174626" y="8344477"/>
+          <a:ext cx="6207124" cy="8498898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AE29" sqref="AE29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47:P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="16383" man="1"/>
+    <brk id="46" max="8" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
